--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/10,25/28,10,25 Ост КИ филиалы/дв 28,10,25 лгрсч ост ки.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/10,25/28,10,25 Ост КИ филиалы/дв 28,10,25 лгрсч ост ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\28,10,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\10,25\28,10,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98438339-0D70-45AB-9ED7-A13341236EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3927205-4400-4BF9-8D07-A9121FBFE1C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
     <t>заказ</t>
   </si>
   <si>
-    <t>13,11,</t>
+    <t>03,11,</t>
   </si>
 </sst>
 </file>
@@ -481,17 +481,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -505,6 +511,8 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="10">
